--- a/hw4/jacobi_timings.xlsx
+++ b/hw4/jacobi_timings.xlsx
@@ -216,7 +216,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Weak Scaling'!$D$14:$D$16</c:f>
+              <c:f>'Weak Scaling'!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -245,7 +245,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Weak Scaling'!$D$23:$D$25</c:f>
+              <c:f>'Weak Scaling'!$D$21:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -273,11 +273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100158184"/>
-        <c:axId val="-2102600200"/>
+        <c:axId val="2128940920"/>
+        <c:axId val="2130172024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100158184"/>
+        <c:axId val="2128940920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102600200"/>
+        <c:crossAx val="2130172024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -318,7 +318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102600200"/>
+        <c:axId val="2130172024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -329,7 +329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100158184"/>
+        <c:crossAx val="2128940920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -462,19 +462,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.274084</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.318521</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.07963025</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0199075625</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.004976890625</c:v>
+                  <c:v>0.00390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -491,11 +491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2101339976"/>
-        <c:axId val="-2098930840"/>
+        <c:axId val="2130215528"/>
+        <c:axId val="2130218504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2101339976"/>
+        <c:axId val="2130215528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098930840"/>
+        <c:crossAx val="2130218504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -512,7 +512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098930840"/>
+        <c:axId val="2130218504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2101339976"/>
+        <c:crossAx val="2130215528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,7 +557,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -937,11 +937,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
@@ -993,14 +991,14 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B8" si="0">4^A5</f>
+        <f t="shared" ref="B5:B7" si="0">4^A5</f>
         <v>4</v>
       </c>
       <c r="C5">
         <v>3.1893999999999999E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D8" si="1">$C$4/C5</f>
+        <f t="shared" ref="D5:D7" si="1">$C$4/C5</f>
         <v>4.7783282122029223E-2</v>
       </c>
     </row>
@@ -1036,215 +1034,176 @@
         <v>5.8120023186990872E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="D8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>500</v>
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
+      <c r="B12">
+        <f>4^A12</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <f>$C$12/C12</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <f>4^A13</f>
-        <v>1</v>
+        <f t="shared" ref="B13:B15" si="2">4^A13</f>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3.7159999999999999E-2</v>
+        <v>0.28253499999999998</v>
       </c>
       <c r="D13">
-        <f>$C$13/C13</f>
-        <v>1</v>
+        <f t="shared" ref="D13:D15" si="3">$C$12/C13</f>
+        <v>0.13152352805847065</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B17" si="2">4^A14</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0.28253499999999998</v>
+        <v>1.13293</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D17" si="3">$C$13/C14</f>
-        <v>0.13152352805847065</v>
+        <f t="shared" si="3"/>
+        <v>3.2799908202625051E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C15">
-        <v>1.13293</v>
+        <v>1.1757869999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>3.2799908202625051E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+        <v>3.1604363715536911E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="C16">
-        <v>1.1757869999999999</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>3.1604363715536911E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>4^A20</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.16575500000000001</v>
+      </c>
+      <c r="D20">
+        <f>$C$20/C20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:B23" si="4">4^A21</f>
         <v>4</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="D17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
+      <c r="C21">
+        <v>0.93832700000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D23" si="5">$C$20/C21</f>
+        <v>0.17664950491672946</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <f>4^A22</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>0.16575500000000001</v>
+        <v>6.1288289999999996</v>
       </c>
       <c r="D22">
-        <f>$C$22/C22</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2.7045133744145907E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B26" si="4">4^A23</f>
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0.93832700000000002</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:D26" si="5">$C$22/C23</f>
-        <v>0.17664950491672946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>6.1288289999999996</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="5"/>
-        <v>2.7045133744145907E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="C25">
+      <c r="C23">
         <v>5.5499289999999997</v>
       </c>
-      <c r="D25">
+      <c r="D23">
         <f t="shared" si="5"/>
         <v>2.9866147837206571E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="D26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1318,8 +1277,8 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>$D$4/B4</f>
-        <v>1.274084</v>
+        <f>1/B4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1342,8 +1301,8 @@
         <v>0.7094957009845414</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="1">$D$4/B5</f>
-        <v>0.318521</v>
+        <f t="shared" ref="F5:F8" si="1">1/B5</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,7 +1326,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>7.963025E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1391,7 +1350,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.99075625E-2</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1411,7 +1370,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4.976890625E-3</v>
+        <v>3.90625E-3</v>
       </c>
     </row>
   </sheetData>
